--- a/deuChatbot/research_result/results/bleu_score/bleu_version_2(2000_400).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_2(2000_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6090,61 +6090,3552 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 모든 분야는 동일한 실기종목을 선택하여 응시합니다. 실기종목은 두 가지가 있습니다: 기초디자인과 사고의 전환입니다.
+### 1. **기초디자인**
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+- **실기주제**: 주제A와 주제B에서 각각 한 개를 선택하여 연결된 주제로 작업합니다. 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음).
+- **화지크기**: 켄트지 3절.
+- **시험시간**: 5시간.
+### 2. **사고의 전환**
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+- **실기주제**: 주제A와 주제B에서 각각 한 개를 선택하여 연결된 주제로 작업합니다. 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈).
+- **화지크기**: 켄트지 2절.
+- **시험시간**: 5시간.
+### 실기시험 점수 배점
+- **기초디자인**: 700점 (70%)
+- **사고의 전환**: 700점 (70%)
+이러한 방식으로 디자인조형학과의 실기시험은 응시자의 창의성, 표현력, 그리고 문제 해결 능력을 평가합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3421741613811314</v>
+        <v>0.6398971497965096</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **실기종목**: 기초디자인, 사고의 전환 중 하나를 선택합니다.
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**:
+  - 주제A와 주제B에서 각각 한 개를 선택하여 연결된 주제로 당일 추첨합니다.
+  예시: 
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+디자인조형학과의 실기종목은 기초디자인 또는 사고의 전환 중 하나를 선택하여 준비해야 합니다. 준비물은 다양한 표현 도구가 필요하며, 주제는 당일 추첨을 통해 결정됩니다. 화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2704919355157106</v>
+        <v>0.5011186675610841</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같은 대회들을 포함합니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 서류심사 점수를 부여받습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.7882270378447697</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개를 선택하여 연결된 주제로 시험을 치릅니다. 주제들은 다음과 같습니다:
+- 주제A:
+  - 잠자리
+  - 무궁화
+  - 피망 (파프리카)
+  - 고양이 
+  - 양파
+  - 달팽이
+  - 오렌지
+- 주제B:  
+  - 콜라병
+  - 포카리스웨트(캔)
+  - 마스크
+  - 시계
+  - 맥가이버 칼
+학생들은 주어진 두 주제를 연결하여 하나의 주제로 만들고, 그 주제에 따른 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3920803145773394</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 모든 전형요소 중 학생부 교과의 비율이 0%이며, 따라서 출결 점수 역시 반영되지 않습니다.
+만약 더 자세한 정보가 필요하시거나 다른 연도에 대한 정보를 원하신다면, 제공된 링크인 "https://ipsi.deu.ac.kr/main.do"를 참고해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.006917310234193492</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8552014824228275</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 영어영문학과 - 교직이며, 정원 내 모집 인원은 50이며, 가군의 일반 학생은 0이며, 나군의 일반 학생은 28이며, 나군의 경기 실적 우수자은 0이며, 나군의 농어촌 학생은 추가내용 참조이며, 나군의 평생 학습자은 0이며, 나군의 성인 학습자(정원내)은 0이며, 나군의 성인 학습자(정원외)은 0이며, 나군의 재직자은 0이며, 나군의 조기 취업형 계약 학과은 0이며, 다군의 일반 학생은 2이다."</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.004240920816978536</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5192814302906865</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7514683195651968</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+상세내용:
+- **모집군**: 나군
+- **전형명**: 학생부교과(농어촌학생전형)
+- **고교유형별 지원자격**:
+  - 일반고: 지원 가능
+  - 자율고: 지원 가능
+  - 특수목적고의 과학고, 국제고, 외국어고: 지원 가능
+  - 특수목적고의 예술고: 지원 불가능 (단, 농어촌학생전형은 예외로 지원이 가능합니다)
+  - 특수목적고의 체육고: 지원 가능
+  - 특수목적고의 마이스터고: 지원 가능
+  - 특성화고의 특성(직업): 지원 가능
+  - 특성화고의 특성(대안): 지원 가능
+  - 영재학교: 지원 가능
+  - 기타의 학력인정고: 지원 가능
+  - 기타의 방송통신고: 지원 가능
+  - 기타의 각종학교: 지원 가능
+  - 검정고시: 지원 불가능 (단, 농어촌학생전형은 예외로 지원이 가능합니다)
+  - 외국고: 지원 불가능 (단, 농어촌학생전형은 예외로 지원이 가능합니다)
+따라서, 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 다만, 지원 자격 요건을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.02102342032246395</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 278~281cm이며, 배점은 350점(35%)입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5050322863071929</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결의 반영 비율이 12%입니다.
+이 정보는 전형요소 반영비율에서 제공되었습니다. 경기지도학과는 실기/실적 위주 전형 유형에 속하며, 해당 학과의 경우 수능은 30%, 출결은 12%, 서류는 70%로 반영됩니다.
+만약 추가 정보가 필요하시거나 다른 질문이 있으시다면 알려주세요.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.001834113043143592</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 다음과 같은 일정으로 진행됩니다:
+- **일시:** 2024. 01. 17.(수)
+- **모집단위:** 시각디자인 / 산업디자인 / 공예디자인
+- **실기종목(택1):**
+  - 기초디자인: 700점 (70%)
+  - 사고의 전환: 700점 (70%)
+**준비물 및 실기주제:**
+- **기초디자인:**
+  - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시 : 잠자리와 저울)
+  - 화지크기: 켄트지3절
+  - 시간: 5시간
+- **사고의 전환:**
+  - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시 : 콜라병과 계절)
+  - 화지크기: 켄트지2절
+  - 시간: 5시간
+이 정보는 현재 제공된 내용을 바탕으로 작성되었습니다. 자세한 사항이나 변경사항은 공식 입학 안내 홈페이지 (http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1.659705485952724e-12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体高考最低标准。根据给出的信息，大多数专业的描述中都提到了“水能最低标准无要求”（수능최저기준 없음）。因此，可以推断出东义大学2024年度应用化学专业的高考最低标准可能没有特别的要求。
+如果需要确切的最低标准信息，建议直接访问东义大学的官方网站或联系学校的招生办公室以获取最准确的信息。您也可以参考以下链接获取更多信息：https://ipsi.deu.ac.kr/main.do
+希望这个回答对您有帮助！如果有其他问题，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>2.020116945644873e-06</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+이러한 신설 학과들은 2024학년도부터 입학생을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6257293796234475</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 공동체역량, 학업역량, 전공적합성을 평가하는 데 사용되며 각 영역별로 해당 비율에 따라 점수를 부여합니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.2561067576790316</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다. 이 가산점은 특정 학과에 한정되지 않고, 모든 모집단위에서 수학을 응시한 지원자들에게 적용됩니다.
+따라서, 동의대학교의 모든 학과에서 수능 가산점을 받을 수 있는 기회가 주어지며, 특히 수학(미적분 또는 기하)을 응시한 지원자는 이 가산점을 활용할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3784882257463262</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역**:
+   - 국어
+   - 수학
+   - 영어
+   - 탐구(사회탐구 또는 과학탐구 중 2개 과목 선택)
+3. **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 총합 점수는 다음과 같이 계산됩니다:
+- 국어 표준점수 × 0.25
+- 수학 표준점수 × 0.25
+- 영어 등급점수 (등급에 따른 점수) × 0.25
+- 탐구 표준점수 (선택한 2개 과목의 평균) × 0.25
+이렇게 계산된 각 영역의 점수를 합하여 최종 점수를 산출합니다.
+참고로, 레저스포츠학과와 태권도학과는 가군 실기/실적(일반학생전형)에서 수능 성적이 30% 반영되고 실기가 70% 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.02202817328874067</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+참조 정보:
+- 전형일정에서 내용은 "&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과"이며,
+- 일정은 "2024. 01. 16.(화)"로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.06147068502340396</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 모집단위가 실기/실적 전형으로 분류되어 제외됩니다.
+이 점을 고려하여 나군 수능(일반학생전형)의 전형요소 반영비율은 다음과 같습니다:
+- 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 수능 30%, 실기 70%입니다.
+- 나머지 모집단위는 수능 100%입니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.1040040364000061</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 다음과 같은 데이터에서 확인할 수 있습니다:
+- **전형요소 반영비율** 섹션에서:
+  - "전형 유형"이 "수능 위주"
+  - "전형명"이 "다군 수능(일반학생전형) 전 모집단위"
+  - "모집 인원"은 180
+  - "사정 단계"는 일괄 합산
+  - "전형요소 반영비율(%)의 수능"은 100%
+  - "수능최저기준"은 "수능최저기준 없음"
+이 정보를 통해, 다군 전형에서 수능 최저기준이 적용되지 않는 것을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.001343759203019129</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.6925964342107198</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수는 2024년 1월 3일부터 1월 6일까지 가능하며, 특히 1월 6일에는 오후 6시까지 접수가 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1404835817144782</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(성인학습자전형)**
+   - **변경 전**: 학생부 종합 평가 영역은 "인성 ㅣ 학업역량 ㅣ 전공적합성"이었습니다.
+   - **변경 후**: 학생부종합 평가 영역은 "공동체역량 ㅣ 학업역량 ㅣ 전공적합성"으로 변경되었습니다.
+2. **학생부종합(조기취업형계약학과전형)**
+   - **변경 전**: 서류(학생부)와 면접의 비율은 각각 70%와 30%였습니다.
+   - **변경 후**: 서류(학생부)와 면접의 비율은 각각 60%와 40%로 변경되었습니다.
+3. **실기/실적(경기실적우수자전형)** 
+   - **변경 전**: 학생부 교과와 실적의 비율은 학생부교과 30%, 서류(실적) 70%였습니다.
+   - **변경 후**: 학생부 교과, 출결, 그리고 서류(실적)의 비율은 각각 18%, 12%, 70%로 변경되었습니다.
+4. **학생부교과**
+   - **변경 전**: 반영과목 수는 전 모집단위에서 최대 8과목이었습니다.
+   - **변경 후**: 반영과목 수는 전 모집단위에서 최대 12과목으로 확대되었습니다.
+5. **학생부교과(농어촌학생전형)**
+   - **변경 전**: 학생부 교과의 비율은 0%였습니다.
+   - **변경 후**: 학생부 교과의 비율은 100%로 변경되었습니다.
+이러한 변화는 동의대학교가 더 다양한 측면을 고려하여 학생들을 평가하고자 하는 의도를 반영합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3136190177798093</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 반영되지 않습니다. 
+이 점을 확인할 수 있는 정보는 다음과 같습니다:
+- **가군 실기/실적(일반학생전형) 전형요소 반영비율**에서:
+  - 모집단위: 레저스포츠학과, 태권도학과
+  - 수능 비중: 30%
+  - 실기 비중: 70% (이 경우는 해당 모집단위가 아닙니다.)
+- **가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율**에서:
+  - 모집단위: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+  - 수능 비중: 100%
+  - 실기 비중: - (즉, 실기가 반영되지 않습니다)
+따라서 동의대학교 2024학년도 가군 실기/실적 전형에서는 실기가 반영되지 않고, 전형은 수능 성적으로만 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.0001352130167366161</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion College（生活融合学院），旨在培养与生活相关的多方面专业知识和技能的人才。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4372422101563475</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. **레저스포츠학과**
+   - 실기종목: 제자리 멀리뛰기, Z-런
+2. **태권도학과**
+   - 실기종목: 제자리 멀리뛰기, Z-런
+이 외의 학과는 가군 수능(일반학생전형)으로만 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.1673232782512382</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "경기실적우수자전형"은 주로 레저스포츠학과와 태권도학과에서 시행됩니다. 
+특히, 다음과 같은 일정이 있습니다:
+- **일정**: 2024년 1월 16일 (화)
+- **내용**: &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)
+따라서, 실기/실적 위주 전형을 지원하려는 학생은 레저스포츠학과나 태권도학과를 고려해볼 수 있습니다. 기타 학과에서는 일반적으로 실기/실적 위주의 전형이 아닌 다른 형태의 전형으로 이루어질 가능성이 높습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.05248212663774887</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도부터 동의대학교 미래융합대학에서 라이프융합학부가 신설되어 다음과 같은 전공들을 제공합니다:
+1. 스타트업 창업 투자학 (Start-up and Venture Investment)
+2. 뷰티 비즈니스학 (Beauty Business) 
+3. 라이프 생활 문화학 (Life Culture Studies)
+이러한 세 가지 전공들이 라이프융합학부의 핵심 과정으로 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.1676392001539153</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（특수목적고등학교）的学生，你可以申请以下几种类型的入学考试：
+1. **나군 학생부종합(평생학습자전형)**
+2. **나군 학생부종합(성인학습자(정원내·외)전형)**
+3. **나군 학생부종합(재직자전형)**
+但是，特殊教育高中的学生不能申请以下几种类型：
+- 나군 학생부교과(농어촌학생전형)
+- 가군, 다군 수능 (일반학생전형)
+- 가군, 다군 실기/실적 (일반학생전型)
+所以，请确认你想要申请的具体类型，然后查看相应的支持资格和提交材料要求。如果还有疑问，可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息。
+如果你是韩语母语者，可以直接访问该网站获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.09877545508772718</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 스마트호스피탈리티학과와 미래형자동차학과, 소프트웨어융합학과가 각각 7명씩 모집되고 있습니다. 이들 학과는 모두 정원 외에서 모집되며, 다른 학과보다 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1191811828797945</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请韩国东义大学的农渔村学生类型学分制招生时，如果是特殊教育高中（特수목적고등학교）的学生，则不符合该类型的招生资格。根据提供的信息，学生部教科（农渔村学生类型）只接受普通高中、自治高中、科学高中、国际高中、外语高中、艺术高中、体育高中、职业高中（包括职业性）、综合高中、学力认定高中、放送通信高中、各种学校以及自学考试和国外高中的毕业生。特殊教育高中不在这个列表中，因此你不能通过学生部教科（农渔村学生类型）进行申请。
+如果你有其他问题或需要进一步的帮助，请告诉我！可以访问 [官方网站](https://ipsi.deu.ac.kr/main.do) 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.02991754282748608</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학의 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+또한, 최종등록자들의 경우 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+따라서, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 최초합격자의 경우 약 330.11이고, 최종등록자의 경우 약 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.09967479900147699</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2426655989945036</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, 최초 합격자 발표는 2월 2일(금) 오후 2시입니다. 이어서 2월 7일부터 13일까지 최초 합격자 등록이 이루어지며, 충원 합격자는 2월 14일(수) 오전 9시부터 16시까지 발표 및 등록이 진행됩니다. 마지막으로 2월 15일(목) 오전 9시부터 16시까지는 3차 충원 합격자 발표 및 등록 일정입니다.
+추가적으로, 2월 15일 오후 7시부터 20일 오후 6시까지는 3차 충원 합격자를 대상으로 한 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.4063546250803757</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문에 답변하기 위해서는 면접고사의 일정이나 날짜가 필요합니다. 제공된 정보에서 면접고사의 정확한 날짜와 시간을 확인할 수 없습니다. 일반적으로 입학사정관들이 면접을 실시하는 날짜는 공지사항이나 각 모집단위의 안내를 통해 알려집니다.
+입학 관련 일정은 대체로 다음과 같습니다:
+1. 면접일정: 보통 합격자 발표 후 1-2주 뒤에 진행됩니다.
+2. 면접장소: 일반적으로 본교 내에서 실시되며, 구체적인 장소는 안내문을 통해 알려집니다.
+3. 입학사정관: 각 모집단위별로 지정된 입학사정관이 면접을 진행합니다.
+면접일정과 장소 등 자세한 정보는 본교의 공식 웹사이트나 입학처에서 확인할 수 있습니다. 만약 구체적인 일정이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 주소로 접속하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.009259161547428766</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보가 제공되지 않았습니다. 일반적으로 대학별로 특정 학력 기준이 설정되어 있을 것입니다만, 해당 문서에서는 구체적인 최저학력기준을 언급하고 있지 않습니다.
+한의예과의 경우 보통 다음과 같은 조건들이 필요할 수 있습니다:
+1. 고등학교 졸업 자격 또는 동등한 학력을 갖추어야 합니다.
+2. 일부 대학은 특정 과목(수학, 영어 등)의 성적 기준을 요구할 수 있습니다.
+더 정확한 정보를 얻으시려면 공식 홈페이지인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>9.901550928234482e-07</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 데이터에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시적으로 확인할 수 없습니다. 그러나 전형요소 반영비율에서 "수능최저기준 없음"이라는 표현이 여러 번 등장하고 있습니다.
+예를 들어, 다음과 같은 내용들이 해당됩니다:
+- "전형 유형은 수능 위주이며, 모집 인원은 273이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 수능은 100이며, 수능최저기준은 수능최저기준 없음이다."
+따라서, 현재 제공된 정보로는 특정 단과대학이나 모집단위별로 명시적인 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학과나 전형에 따라 다르게 적용될 수 있으므로, 정확한 정보를 얻기 위해서는 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1.280888156096724e-08</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 충원합격자 발표 일정은 다음과 같습니다:
+- **2월 14일 (수) 09:00**: 충원 합격자 1차 (인터넷) 발표
+- **2월 15일 (목) 09:00~16:00**: 충원 합격자 1차 (인터넷) 등록
+이후 추가로:
+- **2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**: 충원 합격자 3차 이후 (개별 전화 통보) 발표 및 등록
+따라서, 가장 초기의 충원합격자 발표는 **2월 14일 (수) 09:00**입니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4142581743408252</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도의 추가합격자 발표 일정에 대한 정보는 다음과 같습니다:
+- **충원 합격자 1차 (인터넷) 발표**: 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 (인터넷) 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 (인터넷) 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 (인터넷) 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **충원 합격자 3차 이후 (개별 전화 통보) 발표 및 등록**: 
+  - **발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+  - **등록**: 개별 전화 통보 시 안내
+따라서 추가합격자 발표는 주로 2월 중순에서 말까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1802604606123025</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.03643352336177218</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 평생교육을 받은 학습자를 위한 전형입니다. 주요 특징과 절차는 다음과 같습니다:
+1. **전형 요소 및 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+2. **제출서류 유형**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서 (외국어로 작성된 경우 원본과 번역본 필요)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+3. **평가 영역 및 기준**:
+   - 공동체역량
+   - 학업역량 (학업태도 / 성취)
+   - 전공적합성 (열정)
+4. **면접 평가**:
+   - 학업역량: 문제해결능력, 학업 문제 원인 탐색 및 해결 방안
+   - 전공적합성: 진로정보 탐색능력, 지원 전공에 대한 관심과 이해
+5. **동점자 처리 기준**:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+6. **주의사항**:
+   - 학교생활기록부 작성은 교사의 분석과 검토 없이 단순히 이기하여 기재하지 않아야 합니다.
+   - 동일 내용의 의도적인 반복 기재, 과장된 내용 기재 등 부정적 사례가 있을 수 있습니다.
+평생학습자전형은 평생교육을 받은 학습자의 역량과 적합성을 종합적으로 평가하는 전형으로, 다양한 서류와 면접을 통해 지원자의 능력과 열정을 판단합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3706075852534162</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용범위**:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. **고교 유형별 지원 자격**:
+   - 일반고
+   - 자율고
+   - 과학고, 국제고, 외국어고 (특수목적고)
+   - 예술고, 체육고 (특수목적고)
+   - 마이스터고
+   - 특성화고의 특성(직업) 및 특성(대안)
+   - 영재학교
+   - 학력인정고
+   - 방송통신고
+   - 각종학교
+   - 검정고시
+   - 외국고
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부 (온라인 제공 동의자가 제출할 필요 없음)
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부 (성적증명서 뒤에 만점이 명시된 고교성적 체계자료 첨부)
+5. **4대 보험 가입자**:
+   - 건강보험자격득실확인서
+   - 국민연금가입증명서
+   - 고용보험자격이력내역서
+6. **4대 보험 미가입 / 창업 및 자영업자**:
+   - 사업자등록증명원 또는 폐업사실증명원 (국세청 홈텍스 발급)
+   - 소득금액증명원 (국세청 홈텍스 발급)
+7. **농업, 수산업 등의 1차 산업체 종사자**:
+   - 국가·지방자치단체가 발급하는 공적증명서
+8. **군 경력자**:
+   - 주민등록초본 (주민등록번호 전체가 기재된 서류)
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1.315066626578686e-08</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라 다르게 진행됩니다. 예를 들어:
+1. 체육학과에서는 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등 다양한 종목을 실시합니다.
+2. 레저스포츠학과에서는 제자리 멀리뛰기와 Z-런을 실시합니다.
+3. 태권도학과에서는 품새, 시범, 겨루기 등의 실기를 진행합니다.
+모집단위별로 실시되는 실기 종목과 점수 배점이 다르므로, 해당 모집단위의 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 내용을 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.009480704901067772</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 종목으로 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+각 종목별로 다음과 같은 점수 기준이 있습니다:
+등급 1: 제자리 멀리뛰기(cm) 남은 285 이상 / 메디신볼 던지기(m) 남은 11.5 이상 / Z-런 남은 14.20 이하
+등급 2: 제자리 멀리뛰기(cm) 남은 281~284 / 메디신볼 던지기(m) 남은 11.0~11.4 / Z-런 남은 14.21~14.35
+등급 3: 제자리 멀리뛰기(cm) 남은 277~280 / 메디신볼 던지기(m) 남은 10.5~10.9 / Z-런 남은 14.36~14.50
+등급 4: 제자리 멀리뛰기(cm) 남은 277~280 / 메디신볼 던지기(m) 남은 10.0~10.4 / Z-런 남은 14.51~14.65
+등급 5: 제자리 멀리뛰기(cm) 남은 269~272 / 메디신볼 던지기(m) 남은 9.5~9.9 / Z-런 남은 14.66∼14.80
+이러한 점수 기준을 바탕으로 등급이 결정되며, 각 종목의 배점 비율에 따라 최종 점수가 계산됩니다.
+실기고사는 체육학과에서 진행되므로 해당 학과에 지원하는 경우 이 정보를 참고하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2.79918365938919e-05</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 진행할 예정입니다. 따라서 합격자가 발표된 후에 학교에서 합격자들에게 개별적으로 연락을 주실 것입니다.
+만약 합격 사실을 확인하려면, 홈페이지에서 개별 조회를 통해 확인하실 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 받으실 수 있습니다. 등록장소는 학교 지정은행으로 하시면 됩니다.
+만약 전화 통보를 기다리고 계신다면, 합격자 발표일 이후에 학교 측이 연락을 주실 것으로 예상됩니다. 혹시 전화가 오지 않으셨다면, 학교 입학관리팀으로 문의해 보시는 것이 좋겠습니다.
+입학 관련 자세한 사항은 https://ipsi.deu.ac.kr/main.do 웹사이트를 참고하시거나 직접 연락주시면 도움을 드리도록 하겠습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1430202381486045</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 관련 정보를 통해 추론해볼 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원이 29명으로 경쟁률이 4.14:1입니다. 충원 합격자는 7명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 332.86이고, 이 점수의 표준 편차는 4.97입니다.
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과와 유사할 가능성이 높습니다. 하지만 정확한 지원자 수나 경쟁률 등은 제공된 자료에서 확인할 수 없습니다. 더 구체적인 정보는 해당 대학의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 입학처에 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.04703469170117034</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 하기 어렵지만, 일반적으로 수능 응시 여부와 무관하게 지원 가능한 전형이 있습니다. 예를 들어:
+1. **학생부종합전형**: 이 전형은 주로 학생부 성적과 면접 등을 종합적으로 평가하여 선발합니다. 따라서 수능 점수 없이도 지원 가능합니다.
+2. **평생학습자/성인학습자/재직자전형**: 이들 전형은 주로 학생부와 면접, 그리고 재직 경력 등을 종합적으로 평가하여 선발합니다. 수능 점수는 필요하지 않습니다.
+3. **농어촌학생전형**: 이 전형은 농어촌 지역 거주 여부와 학생부 성적 등을 기준으로 지원자를 선발하므로, 수능 점수가 요구되지 않을 가능성이 있습니다.
+4. **조기취업형계약학과전형**: 이 전형도 주로 학생부 성적, 면접, 그리고 조기 취업 경력 등을 종합적으로 평가하여 선발합니다.
+따라서 수능 응시 여부와 무관하게 지원할 수 있는 전형이 많습니다. 하지만 특정 단과대학이나 모집단위에 대한 정확한 정보는 해당 대학의 입학처 웹사이트나 공지사항을 확인하는 것이 가장 확실합니다. 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 더 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>4.506036218578298e-07</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시모집에서 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 특별한 예외 없이 지원이 어려울 것으로 보입니다. 하지만 일부 전형에서는 성인 학습자나 재직자를 대상으로 하는 특별전형이 있으므로, 다음과 같은 점들을 확인해보세요:
+1. **성인학습자전형**: 이는 만 30세 이상의 성인을 대상으로 하며, 지원 자격과 서류 제출 등에 대한 요구사항이 있습니다.
+2. **재직자전형**: 특정 학과에서는 재직자를 대상으로 하는 전형이 있으므로 해당 학과의 지원 자격 조건을 확인해보세요.
+추가적으로, 동의대학교 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 지원 자격 조건을 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.06634353384597752</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+   - 이날 입학 안내 홈페이지에서 모집 인원이 공고됩니다.
+2. **원서 접수(인터넷)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 6일 (토요일)
+   - 마감 시간은 각 전형별로 다르며, 대부분 18시까지입니다.
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**: 2024년 1월 3일 (수요일) ~ 2024년 1월 12일 (금요일)
+   - 서류 제출 마감 시간은 17시까지입니다.
+   - 제출 방법: 접수 사이트에서 우편 발송용 표지를 출력하여 부착 후 제출하거나 우편으로 보내는 방식입니다.
+4. **실기고사**:
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화요일)
+     - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금요일) 오후 14시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수요일)
+     - 대기실 및 입실 시간 안내는 마찬가지로 2024년 1월 12일 (금요일) 오후 14시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금요일) 오후 14시
+     - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - 등록 장소: 학교 지정은행 (등록금 고지서에 기재)
+   - **최초 합격자 등록**: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일) (은행 마감 시간 내)
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수요일) 오전 9시
+     - 1차: 2024년 2월 14일 (수요일) 오전 9시 ~ 오후 4시
+     - 2차: 2024년 2월 15일 (목요일) 오전 9시
+     - 2차: 2024년 2월 15일 (목요일) 오전 9시 ~ 오후 4시
+     - 3차 이후: 2024년 2월 15일 (목요일) 오후 7시 ~ 2024년 2월 20일 (화요일) 오후 6시까지 (개별 전화 통보)
+     - 3차 이후: 개별 전화 통보 시 안내
+이 일정은 일반적인 정시 모집 일정이며, 특정 전형이나 학과에 따라 약간의 차이가 있을 수 있으므로 공식 입학 안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4373213245202081</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송 (제출서류가 있는 경우 참조)
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: *발표: 홈페이지에서 개별 조회* 
+           *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령*
+           *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00 ~ 16:00
+       - 비고: 동일
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00 ~ 16:00
+       - 비고: 동일
+   - 3차 이후 (개별 전화 통보):
+     - 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+     - 등록: 개별 전화 통보 시 안내
+이 일정은 일반적인 정시모집 일정이며, 각 학과와 전형에 따라 세부 사항이 다를 수 있으므로 공식 입학안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6020381338268397</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 구성되어 있으며, 수능 미응시자도 지원이 가능합니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하며, 수능 미응시자도 지원이 가능합니다.
+3. **학생부종합(성인학습자(정원외)전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 하며, 수능 미응시자도 지원이 가능합니다.
+4. **학생부종합(재직자전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 재직자를 대상으로 하며, 수능 미응시자도 지원이 가능합니다.
+5. **학생부종합(조기취업형계약학과전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 하며, 수능 미응시자도 지원이 가능합니다.
+위와 같은 전형들은 수능을 응시하지 않은 경우에도 지원이 가능한 전형들입니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.009964232927682457</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터만 제공되어 있습니다. 2023학년도의 정보가 포함되지 않았습니다. 하지만, 주어진 2024학년도 데이터를 바탕으로 전자공학과의 충원 합격은 1차까지 이루어졌음을 확인할 수 있습니다.
+2024학년도 전자공학과의 관련 데이터는 다음과 같습니다:
+- 모집 인원: 35명
+- 지원 인원: 95명
+- 경쟁률: 2.71
+- 충원 합격 (후보순위): 60명
+따라서, 2024학년도에 전자공학과의 충원 합격은 1차까지 이루어졌습니다.
+만약 전년도 데이터가 필요하다면, 해당 정보를 제공하는 웹사이트인 https://ipsi.deu.ac.kr/main.do를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1246000744253738</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要联系东义大学入学处，建议您访问其官方网站（https://ipsi.deu.ac.kr/main.do）查找联系方式，通常学校官网会有招生办公室或入学处的相关联系电话和电子邮件地址。
+如果网站上没有提供具体的电话信息，您可以尝试通过以下方式获取：
+1. 通过电子邮件发送询问。
+2. 在网站的“联系我们”页面中寻找其他联系方式。
+3. 搜索学校的社交媒体账号（如Facebook、Twitter等），有时会在这些平台上找到联系信息。
+4. 直接访问学校进行咨询。
+希望这些建议对您有所帮助！如果还有其他问题，欢迎继续提问。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.04410485593383499</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자 발표 및 등록일정에서 개별 전화 통보 방식으로 합격자를 발표한 후, 전화 통화가 되지 않는 경우에도 합격자는 홈페이지에서 개별 조회 가능합니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있으며, 등록장소는 학교 지정은행(등록금 고지서에 기재된 정보를 참고)으로 진행됩니다.
+따라서 전화 통화가 되지 않더라도 다음 방법들을 통해 합격 사실을 확인하고 등록 절차를 완료할 수 있습니다:
+1. 홈페이지에서 개별 조회
+2. 고지서 출력 또는 입학관리팀에서 수령
+3. 등록장소로 학교 지정은행에 방문하여 등록금 납부
+이러한 절차를 통해 합격자들은 충원 합격 사실을 확인하고 등록 과정을 완료할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1434302729569124</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시, 유형에 따라 다음과 같은 서류가 필요합니다:
+### 유형 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+- **중학교 학교생활기록부** (1부) ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+### 유형 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+**공통사항:**
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급된 서류만 인정됩니다.
+이러한 서류들은 지원자의 학력과 거주지역에 대한 증빙자료로 사용되며, 정확하고 충분히 준비되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5833976252693576</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다. 단, 중·고등학교 재학 시 부모 모두가 농어촌 지역에서 거주한 경우에는 '6년 과정'의 서류를 제출할 수 있습니다.
+참조: 
+나군 학생부교과(농어촌학생전형) - 정원외 제출서류에서 유형은 12년 과정이며, 구분은 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자이며, 제출서류은 1. 지원자 본인의 주민등록초본 1부 2. 초등학교 학교생활기록부 1부 3. 중학교 학교생활기록부 1부 4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) ※ 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출 가능 ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급이다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2103805238637087</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 저소득 기회균등 전형에 대한 명확한 언급이 없습니다. 따라서 현재의 정보로는 정시모집에서 저소득 기회균등 전형이 실시되지 않는 것으로 보입니다.
+만약 저소득 기회균등 전형이 존재한다면, 일반적으로 다음과 같은 특징을 가질 수 있습니다:
+1. 별도의 모집단위 또는 전형 유형으로 운영될 가능성이 높습니다.
+2. 지원 자격 조건과 선발 방법에 대한 별도의 안내가 있을 것입니다.
+3. 학생부 교과 성적, 실기 성적 등 일반적인 전형 요소와 함께 경제적 배경을 고려할 수 있습니다.
+추가 정보를 얻으시려면 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 방문하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.03270109422166233</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 수능 영어영역 등급에 따른 점수에서 중간점수로 간주됩니다. 일반적으로 대학입시에서는 등급이 정수만 인정되므로, 2.5등급은 3등급으로 반올림하여 처리됩니다.
+따라서 사탐 2과목 평균산출 시 2.5등급이 나온다면, 해당 과목의 점수가 3등급에 해당하는 점수로 처리될 것입니다.
+만약 수능 영어영역 등급에 따른 점수에서의 예시를 보면:
+- 1등급: 139
+- 2등급: 131
+- 3등급: 123
+따라서 2.5등급은 3등급으로 처리되어 123점이 적용됩니다.
+결론적으로, 2.5등급은 3등급으로 반올림하여 절사하지 않고 그대로 평균산출에 포함시킵니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1383391533498416</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제 정시 모집에서 정시 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 등록 기간: 2024. 02. 14.(수) 09:00~16:00
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 등록 기간: 2024. 02. 15.(목) 09:00~16:00
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 등록 기간: 개별 전화 통보 시 안내
+이후에는 추가적인 충원 합격자는 개별 전화통보를 통해 발표됩니다.
+따라서 정시 충원 합격자 발표는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2564629070589421</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집요강을 확인해보겠습니다.
+- **모집단위 및 모집인원**: 상경대학, e비즈니스학과 - 교직, 모집인원은 10명입니다.
+- **수능 반영 영역 및 가산점**:
+  - 국어(화법과작문 또는 언어와매체) 25%
+  - 수학(확률과통계 또는 미적분 또는 기하) 25%
+  - 영어 25%
+  - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+- **수능 최저등급**: e비즈니스학과의 수능 최저등급은 4.0입니다.
+따라서, 수능 영역별 등급이 다음과 같아야 합니다:
+- 국어: 4.6
+- 수학: 4.6
+- 영어: 4.6
+- 탐구: 4.6
+이 조건을 충족하면 추가 합격 가능성이 있습니다. 하지만, 최종 합격 여부는 경쟁률과 지원자의 전체 성적 등 다양한 요인에 따라 결정됩니다.
+추가적으로, 수능 외에도 서류평가와 면접 등의 평가도 이루어지므로, 전반적인 평점을 고려해야 합니다. 
+만약 자세한 정보나 추가 질문이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.3321750209371094</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률과 지원자 수를 고려할 때, 정시 등급 5.3이면 최초 합격 가능성은 낮을 것으로 보입니다.
+주요 데이터:
+- 모집 인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56
+등급 5.3은 등급 평균(4.17)보다 높지만, 표준 편차가 0.14로 매우 낮기 때문에 상대적으로 높은 점수를 가진 지원자가 많을 것으로 예상됩니다.
+이러한 상황에서 정시 등급 5.3은 중간 수준의 점수일 가능성이 크므로, 최초 합격 가능성은 낮다고 판단할 수 있습니다. 대체로 등급이 높아질수록 경쟁률이 더 높아지기 때문에, 이 수준에서는 후보 순위에서 상당한 위치를 차지해야 최초 합격 가능성이 있을 것입니다.
+만약 정시 등급 5.3으로 e비즈니스학과에 지원한다면, 충원 합격 (후보순위)이 33명이라는 점을 고려하여, 후보 순위에서 상당히 높은 위치를 차지해야 최초 합격 가능성이 있을 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1505399378317272</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 답변 드리겠습니다. 하지만, 정확한 예비합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 유형**: e비즈니스학과의 전형 방식이 무엇인지 확인해야 합니다. 일반적으로 학생부종합전형, 수능전형 등 다양한 형태가 있을 수 있습니다.
+2. **성적 및 평가 영역**:
+   - **수능 성적**: 수능 성적이 중요합니다. e비즈니스학과의 경우, 수능 반영 비율이 높을 가능성이 있으므로, 국어, 수학, 영어 등 주요 과목의 성적을 잘 보유하고 있어야 합니다.
+   - **학생부 평가**: 학생부에서 공동체역량, 학업역량, 전공적합성 등의 영역에서 높은 점수를 받았는지 확인해야 합니다.
+3. **면접 성적**:
+   - e비즈니스학과의 경우, 면접 평가도 중요한 요소일 수 있습니다. 면접에서는 지원동기와 학업계획, 전공적합성 등을 잘 설명할 수 있어야 합니다.
+4. **추천서 및 기타 서류**:
+   - 추천서나 기타 서류의 내용이 중요합니다. 이는 학교생활기록부 외에 추가로 제출해야 할 서류를 의미합니다.
+5. **동점자 처리 기준**: 동점자 처리 기준을 확인하여, 현재 성적이 어느 등급인지 파악해야 합니다.
+6. **모집인원 및 지원자 수**:
+   - 모집인원과 지원자의 수를 비교하여 경쟁률을 파악하고, 이에 따른 합격 가능성을 판단해야 합니다.
+현재 정보만으로는 정확한 예비합격 가능성을 판단하기 어렵습니다. 구체적인 전형 방식과 성적 등급 등을 확인하시고, 입학처 웹사이트나 대학 관계자에게 문의하시는 것이 가장 좋습니다. 
+추가적으로, 2024학년도 입시 정보는 정확한 데이터를 제공하기 위해 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.005267418795179194</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 등급으로 동의대학교 간호학과에 지원하는 경우, 합격 가능성을 평가해볼 수 있습니다.
+1. **모집인원 및 지원자 수**: 
+   - 간호학과는 정원 내 모집 인원이 110명이며, 나군 일반 학생으로 지원할 경우 추가내용 참조입니다.
+   - 실제 지원자는 22명입니다 (나군 일반 학생).
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+   - 영어 등급의 평균은 2.34이며, 표준 편차는 0.69입니다.
+3. **성적 비교**:
+   - 3.44라는 수능 등급은 평균보다 약간 높습니다 (평균 353.48에 비해).
+   - 영어 등급도 평균치를 상회합니다 (평균 2.34).
+4. **경쟁률**:
+   - 경쟁률이 6.59입니다, 이는 비교적 높은 수준입니다.
+따라서, 3.44라는 성적이 간호학과에 지원하는 경우에도 합격 가능성은 있습니다만, 경쟁률이 높아서 확실한 것은 아닙니다. 
+**추천 사항:**
+1. **추가 자료 제출**: 서류평가 영역에서 좋은 평점을 받을 수 있도록 추가 자료를 준비하고 제출합니다.
+2. **면접 준비**: 면접에서도 긍정적인 인상을 줄 수 있도록 충분히 준비합니다.
+3. **자기소개서 작성**: 자기소개서에서 자신의 장점과 간호사로서의 열정을 잘 표현합니다.
+결론적으로, 3.44라는 성적만으로는 확실한 합격은 어려울 수 있지만, 추가 자료와 면접 준비를 통해 합격 가능성은 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.03548422496032533</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 모집 정보를 바탕으로 분석해보겠습니다.
+1. **모집 인원 및 지원 인원**:
+   - 정원 내 모집 인원: 22명
+   - 지원 인원: 145명
+2. **경쟁률**:
+   - 경쟁률: 6.59 (145 / 22)
+3. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 357.63
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.37
+4. **성적 비교**:
+   - 성적이 2.52인 경우, 평균 점수인 357.63보다 훨씬 낮습니다.
+   - 표준 편차가 5.37이므로, 2.52는 평균에서 약 100점 아래에 해당합니다.
+**결론:**
+성적이 2.52인 경우, 동의대학교 간호학과 최종 합격 가능성은 매우 낮습니다. 이 성적은 평균 점수보다 훨씬 낮기 때문에 경쟁률이 높고 지원 인원도 많은 상황에서 합격하기는 어려울 것으로 보입니다.
+만약에 특별한 사유가 있다면, 입학사정관의 심사를 통과할 가능성은 있으나, 일반적으로는 어렵다고 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.04790032379965981</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 입학하기 위해서는 여러 요소를 고려해야 합니다.
+1. **성적**: 간호학과는 일반적으로 높은 GPA를 요구합니다. 3.7은 꽤 좋은 성적이지만, 일부 대학에서는 4.0 이상을 요구할 수 있습니다. 따라서 이 점수만으로는 확실한 합격을 보장받기는 어렵습니다.
+2. **학생부**: 간호학과의 경우, 학생부에서의 활동과 경험도 중요합니다. 자원봉사 활동, 의료 관련 프로젝트 참여, 또는 간호 관련 클리닉 경험 등이 유리할 수 있습니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다. 특히 간호학과에서는 의사소통 능력과 공감능력 등을 중점적으로 평가하기 때문입니다.
+4. **추천서 및 자기소개서**: 추천서와 자기소개서에서 자신의 열정과 적합성을 잘 표현하는 것도 중요합니다.
+5. **기타 요인**: 학교마다 다른 전형방법이 있으므로, 해당 대학의 정시 모집요강을 꼼꼼히 확인해야 합니다. 예를 들어, 일부 대학에서는 면접 점수나 추천서가 큰 영향을 미칠 수 있습니다.
+따라서 3.7의 GPA만으로는 확실한 합격을 보장받기는 어렵지만, 다른 요소들을 잘 준비한다면 좋은 결과를 얻을 수 있을 것입니다. 각 대학의 모집요강과 전형방법을 철저히 확인하고, 자기소개서와 추천서 등을 잘 작성하는 것이 중요합니다.
+추가적으로, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.02960283563439899</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원과 지원자 수를 살펴보면 다음과 같습니다:
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+간호학과의 경우, 평균적인 경쟁률이 상당히 높습니다 (6.59). 또한, 지원자의 수가 많아서 입학사정관들이 다양한 요인을 고려해야 합니다.
+2024학년도 간호학과 지원자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다. 이는 매우 높은 점수이며, 2.58이라는 성적이 해당 평균에 크게 미치지 못합니다.
+그러나 정시 모집에서는 단순히 수능 점수가 전부가 아닙니다. 학생부 종합 평가, 면접 결과 등 다양한 요인들이 고려됩니다. 따라서 2.58이라는 성적만으로는 합격하기 어렵다고 볼 수 있습니다.
+하지만 다음과 같은 경우에 합격 가능성은 높아질 수 있습니다:
+1. **학생부 종합 평가**: 긍정적인 학생부 기록, 활동 경력 등이 있다면 이 부분에서 좋은 점수를 받을 수 있습니다.
+2. **면접 성적**: 면접에서도 우수한 성적이 나온다면 합격 가능성은 높아질 수 있습니다.
+결론적으로 2.58이라는 성적만으로는 낮은 확률로 합격할 가능성이 있지만, 학생부 종합 평가와 면접 성적 등 다른 요인들이 긍정적인 결과를 가져올 경우 합격 가능성은 높아질 수 있습니다.
+추천되는 조치:
+- **학생부 및 활동 기록 강화**: 긍정적인 학생부 기록과 다양한 활동 경력을 준비합니다.
+- **면접 준비**: 면접을 위한 충분한 준비를 합니다. 간호사로서 필요한 역량과 가치관에 대해 잘 이해하고 있어야 합니다.
+더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.01459995211621987</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东国大学是否有游戏工学专业或具体的招生计划。建议您直接访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和专业设置，或者联系学校的招生办公室获取最准确的信息。
+如果您确定学校有游戏工学相关专业，但具体信息中没有列出，请注意以下几点：
+1. 有些专业可能属于新设或正在筹备中的专业。
+2. 招生计划可能会每年有所调整。
+3. 可能需要参加特定的入学考试或面试。
+建议您直接联系东国大学招生办公室确认游戏工学专业的具体信息和录取要求。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1246545374406043</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 모집 인원이 3명이고 지원 인원이 16명으로 경쟁률은 5.33입니다. 충원 합격자는 3명이었으며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+당신의 수능 성적이 4.16이라면, 이는 대략 300점대 중반에서 높은 점수를 의미합니다. 게임공학과의 충원 합격者的，你的问题翻译成中文是：如果我的高考成绩是4.16分（假设这里的“4.16”是指综合分数），在2024年申请同意大学的游戏工程专业，我能获得多少个额外的录取名额？
+根据提供的信息：
+- 游戏工程专业的招生人数为3人。
+- 报名人数为16人。
+- 竞争比是5.33。
+- 最终录取的人数为3人。
+综合分数平均值为303.05，而你的成绩为4.16。这个成绩在实际高考中可能对应的是一个相对较高的分数（假设这里的“4.16”是指综合分数）。
+由于游戏工程专业的竞争比是5.33，这意味着每3个录取名额有大约16名考生竞争。如果你的综合分数为303.05或更高，你有很大的机会被录取。你的成绩略高于平均分（假设这里的“4.16”是指综合分数），因此你很有可能会被录取。
+所以，如果你的成绩是303.05或以上，你有可能获得额外的录取名额。具体能获得多少个额外的录取名额取决于其他考生的具体分数分布情况，但根据提供的信息，你的成绩应该能够确保你被录取。
+建议：
+1. 确认你的综合分数是否确实为303.05或更高。
+2. 查看具体的招生分数线和排名情况。
+3. 如果可能的话，咨询学校的招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.03981258679087061</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리 기준을 살펴보면, 학생부종합(조기취업형계약학과전형)의 경우 교과 성적 평균이 중요한 요소 중 하나입니다. 하지만 최초 등록자의 우선권은 일반적으로 지원 자격 조건 중 하나로 작용할 수 있습니다.
+주요 점을 정리하면:
+1. **성적 기준**: 경영정보학과에서 반영되는 교과 성적이 3.75이면, 이는 좋은 성적입니다.
+2. **최초 등록자 우선권**: 최초 등록자는 일반적으로 우선적으로 평가받을 수 있습니다.
+따라서, 경영정보학과에 지원하려는 경우 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **성적 확인**: 3.75 이상의 성적이 반영되면 합격 가능성은 높아집니다.
+2. **최초 등록자 확인**: 최초 등록자는 일반적으로 우선적으로 평가받으므로, 이 점을 활용할 수 있습니다.
+하지만 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 확실합니다. 해당 사이트에서는 최신 정보와 자세한 안내를 제공하고 있을 것입니다.
+[입학처 웹사이트 링크](https://ipsi.deu.ac.kr/main.do)
+이러한 절차를 통해 최종 결정을 내릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.09672377461457449</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집군 변경 사항을 살펴보면, 경영정보학과는 학생부종합 평가 영역에 해당합니다. 따라서, 단순히 성적이 4.2라는 점만으로 최초등록자로 가능할 것인지 판단하기는 어렵습니다.
+학생부종합 평가 영역의 경우 다음과 같은 요소들이 고려됩니다:
+1. **공동체역량**: 학교생활 및 사회 활동에서의 역량
+2. **학업역량**: 교과 성적 등 학업 능력
+3. **전공적합성**: 지원 전공에 대한 이해와 적합성
+따라서, 단순히 4.2라는 점수만으로는 충분하지 않습니다. 다음과 같은 요소들을 고려해야 합니다:
+- **학업역량**의 경우, 4.2라는 점수가 좋은 성적일 수 있지만, 전체적인 학업 역량을 평가받기 때문에 다른 과목들의 성적도 중요합니다.
+- **공동체역량**과 **전공적합성**에 대한 내용이 필요합니다.
+따라서, 4.2라는 점수만으로 최초등록자로 가능할 것인지 확답하기는 어렵습니다. 더 자세한 정보를 가지고 평가해야 합니다. 만약 궁금한 점이 있다면, 동의대학교 입학처에 문의하시거나, 제공된 데이터와 함께 전문가의 조언을 구하는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 자세한 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.06482213472822762</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 최종등록자들의 평균 성적을 살펴보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 300.68
+- 영어 등급의 평균: 3.89
+이러한 데이터를 바탕으로, 정시 성적이 5.33인 경우 다음과 같은 판단을 할 수 있습니다:
+1. **국어 + 수학 + 탐구(2개) 표준 변환 점수**: 
+   - 평균은 300.68입니다. 이는 5.33보다 약간 낮습니다.
+2. **영어 등급**:
+   - 평균 영어 등급은 3.89로, 5.33보다 높습니다.
+따라서, 정시 성적이 5.33인 경우 경영정보학과에 합격하기 위해서는:
+- 수능 점수를 조금 더 높여야 합니다.
+- 영어 등급이 이미 높기 때문에 이 부분에서는 우위가 있습니다.
+**추천 조치:**
+1. **수능 공부 강화**: 특히 국어, 수학, 탐구 과목에서 성적을 향상시키는 것이 중요합니다.
+2. **영어 실력 유지**: 이미 높은 영어 등급이므로 이 부분에서는 안정적으로 유지할 수 있습니다.
+**결론:**
+5.33의 정시 성적이 경쟁률과 평균 성적을 고려하면 약간 낮지만, 적절한 준비를 하면 합격 가능성은 있습니다. 그러나 확실한 합격을 보장하기 위해서는 추가적인 공부가 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.04694516581214692</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(바이오의약공학과, 의생명공학과, 식품공학과)에 대한 지원을 고려하실 때, 성적 평균 점수와 경쟁률 등을 종합적으로 고려해야 합니다.
+주요 정보:
+- 바이오응용공학부는 3개의 학과로 구성되어 있습니다: 바이오의약공학과, 의생명공학과, 식품공학과.
+- 각 학과별 모집인원과 지원 인원은 다음과 같습니다:
+  - 바이오의약공학과: 모집인원 46명, 지원인원 21명
+  - 의생명공학과: 모집인원 47명, 지원인원 0명 (가군), 20명 (다군)
+  - 식품공학과: 모집인원 46명, 지원인원 0명 (가군), 20명 (다군)
+성적 평균 점수:
+- 바이오의약공학과 최초등록자: 국어+수학+탐구(2개) 표준변환점수 합 평균 396.29
+- 의생명공학과 최초등록자: 국어+수학+탐구(2개) 표준변환점수 합 평균 433.52
+- 식품공학과 최초등록자: 국어+수학+탐구(2개) 표준변환점수 합 평균 410.95
+성적 3.33은 대략 300점대 중반에서 350점대 초반의 점수가 될 것입니다. 이는 바이오응용공학부 최초등록자들의 성적 평균보다 낮습니다.
+결론적으로:
+- **바이오의약공학과**: 경쟁률이 높고, 지원 인원도 적으므로 성적이 300점대 중반에서 350점대 초반이라면 충분히 가능하지만, 확실한 것은 아닙니다.
+- **의생명공학과**: 현재 지원인원이 없으므로 경쟁률은 낮지만, 최초등록자들의 성적이 높아서 성적이 300점대 중반에서 350점대 초반이라면 어렵다고 볼 수 있습니다.
+- **식품공학과**: 현재 지원인원이 없으므로 경쟁률은 낮지만, 최초등록자들의 성적이 높아서 성적이 300점대 중반에서 350점대 초반이라면 어렵다고 볼 수 있습니다.
+따라서 성적 3.33 (약 300-350 점대)으로는 바이오응용공학부의 최초등록자로 선발될 확률은 낮을 것으로 예상됩니다. 그러나 정확한 결과를 알기 위해서는 해당 학과의 최종 등록자들의 성적 분포와 경쟁률 등을 확인해야 합니다.
+추가적으로, 지원 시에는 학업역량, 전공적합성 등의 면접 평가에서도 좋은 점수를 받을 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.009008735113872381</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 하지만 정확한 정보를 제공하기 위해서는 방사선학과의 정시 모집요강을 직접 참조해야 합니다. 일반적으로 방사선학과는 과학적 배경이 필요하며, 수능 과목 중 과학 영역이 중요하게 평가됩니다.
+현재 제시된 성적이 4.4 등급이라면, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 과학 영역**: 방사선학과는 과학적 배경을 필요로 하므로, 수능 과학 영역의 성적이 중요합니다. 만약 과학(물리/화학) 등급이 높다면 이점은 유리할 것입니다.
+2. **전형별 평가**: 일반학생전형에서는 수능 점수와 학생부 교과성적, 그리고 일부 모집단위에서는 실기 성적이 반영될 수 있습니다. 따라서 과학 영역의 등급이 높다면 이점은 크게 작용할 것입니다.
+3. **모집단위**: 방사선학과는 특정한 모집단위에 따라 전형 요소가 다를 수 있으므로, 해당 학과의 정확한 모집요강을 확인해야 합니다.
+4. **전공적합성**: 방사선학과는 과학적 배경이 필요하므로, 자신의 학업역량과 전공적합성을 고려해볼 필요가 있습니다.
+**추천 사항:**
+- 방사선학과의 정시 모집요강을 확인하여 수능 과목별 등급과 실기 성적이 어떻게 반영되는지 파악합니다.
+- 학생부 교과성적 중 과학 영역의 성적이 높은지 확인합니다.
+- 전공적합성을 고려하고, 자신의 관심사와 장점을 살펴봅니다.
+**결론:**
+현재 제시된 성적으로 방사선학과에 지원하는 것은 가능하지만, 정확한 판단을 위해서는 해당 학과의 모집요강을 확인해야 합니다. 추가적인 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하시는 것이 좋습니다.
+[입학처 웹사이트 링크](https://ipsi.deu.ac.kr/main.do)
+위 링크로 이동하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.0124936338317081</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 모집인원은 5명이며 지원인원은 36명입니다. 이에 따라 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 338.76이고, 표준 편차는 5.40입니다.
+당신의 점수가 2.66이라는 것은 표준 변환 점수로 보아 약 260점대 중반에서 낮은 범위를 의미합니다. 이 점수는 평균보다 상당히 낮습니다:
+- 평균: 338.76
+- 표준 편차: 5.40
+이러한 점수로는 경쟁률과 지원 인원을 고려할 때 충분히 합격하기 어렵다고 볼 수 있습니다.
+하지만, 다음과 같은 요소들을 고려하면 여전히 희망이 있을 수 있습니다:
+1. **면접 성적**: 면접에서도 좋은 점수를 받으면 전체 평점을 높일 수 있습니다.
+2. **서류평가**: 서류평가에서 우수한 결과를 얻을 경우 합격 가능성은 높아질 수 있습니다.
+3. **특기사항 및 활동**: 특별한 경험이나 활동이 있다면 이를 잘 보여줄 수 있는 기회가 있을 수 있습니다.
+따라서, 현재 점수로는 위험할 수 있지만, 면접과 서류평가에서 좋은 성적을 거두면 합격 가능성은 여전히 존재합니다. 추가적으로 준비를 하면서 특기사항이나 활동을 강조하는 것이 중요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.069816337659156</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 대부분의 대학에서 농어촌 전형은 일반 전형보다 더 치열한 경쟁을 겪습니다. 성적이 3.66이라면, 평균적인 합격자들의 성적(보통 4.0 이상)에 비해 상대적으로 낮습니다.
+2. **전형 특성**: 농어촌 전형은 주로 지역 내 지원자의 경쟁을 고려하여 선발합니다. 따라서 같은 지역에서 더 우수한 성적을 보인 다른 지원자들과의 경쟁이 있을 것입니다.
+3. **기타 평가 요소**: 합격 여부는 단순히 성적이 아닌, 서류평가와 면접 등 다양한 평가 요소를 종합적으로 판단합니다. 따라서 성적이 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 가능성이 있습니다.
+4. **지역 특성**: 농어촌 지역의 경우, 지원자의 수가 일반적으로 적을 수 있으므로, 성적 외에 다른 요소들이 더 중요하게 작용할 수 있습니다.
+**추천 사항:**
+- **서류 준비**: 서류평가에서 우수한 점수를 받기 위해 노력하세요. 특히 학업역량과 전공적합성 부분을 강조해야 합니다.
+- **면접 준비**: 면접에서도 성적 외의 요소들을 잘 보여줄 수 있도록 준비하세요. 지역 특성을 이해하고, 농어촌에서의 생활 경험 등을 활용해 답변하면 좋습니다.
+**참고 링크:**
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이러한 정보를 참고하시면서 지원 준비를 철저히 하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1014052433870418</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 모든 것이 확정된 것은 아니므로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **전형 유형**: 정시 일반학생 전형에서 수능 위주로 평가되는 경우, 수능 성적이 중요합니다.
+2. **수능 성적**: 25번의 순위를 얻기 위해서는 매우 높은 수능 점수가 필요합니다. 예를 들어, 국어, 수학, 영어 등급이 모두 좋은 점수여야 합니다.
+3. **학교 특성**: 일부 대학에서는 특정 학과나 전형에서 더 많은 지원자가 있을 수 있으므로, 해당 학교의 전체 지원자 수와 모집인원을 고려해야 합니다.
+4. **경쟁률**: 정시 일반학생 전형의 경쟁률이 매우 높다면, 25번은 낮은 확률로 합격할 수 있습니다.
+5. **추가 정보**: 서류나 면접 등 추가 평가 요소를 고려해야 합니다. 예를 들어, 실기고사나 학생부 종합 평가에서 우수한 성적을 받았다면 이는 합격 가능성에 긍정적인 영향을 줄 수 있습니다.
+6. **추천서**: 추천서나 자기소개서 등 서류평가에서도 좋은 점수를 받으면 도움이 될 수 있습니다.
+결론적으로, 25번의 순위에서 합격하기는 매우 어려울 것으로 보입니다. 하지만 최선을 다해 준비하고, 추가 평가 요소에서 우수한 성적을 얻는다면 작은 가능성은 존재할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.13483381045709</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학과의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **경쟁률**: 주어진 정보에서 가장 높은 경쟁률은 5.75 (미디어커뮤니케이션학과)이며, 가장 낮은 경쟁률은 2.89 (행정학과)입니다. 법경찰행정학과의 정확한 경쟁률을 알 수 없지만, 일반적으로 이 학과의 경쟁률은 중간 정도일 것으로 예상됩니다.
+2. **평균 점수**: 
+   - 가장 낮은 경쟁률인 행정학과의 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합은 308.55입니다.
+   - 가장 높은 경쟁률인 미디어커뮤니케이션학과의 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합은 429.25입니다.
+3. **안정권 예상**: 
+   - 법경찰행정학과의 경쟁률이 중간 정도일 경우, 평균 점수가 308.55에서 429.25 사이에 있을 것으로 추정됩니다.
+   - 안정적인 합격을 위해서는 평균 점수보다 약간 높은 수준의 성적을 받는 것이 좋습니다.
+따라서, 법경찰행정학과를 정시로 들어갈려면 다음과 같은 점수를 목표로 설정하는 것이 안정적인 접근법일 것입니다:
+- **안정권**: 320 ~ 340 사이
+- **문 닫고 들어갈 수 있는 수준**: 350 이상
+이러한 추정치는 실제 경쟁률과 지원자의 성적 분포에 따라 변동될 수 있으므로, 최종 결정을 내리기 전에는 동의대학교 입학처 웹사이트나 공식 안내 자료를 확인하는 것이 좋습니다. 또한, 입시 전문가와 상담하여 더 정확한 정보를 얻는 것도 도움이 될 것입니다.
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하시거나, 학교 입학처에 직접 문의하시는 것이 가장 정확한 결과를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3438974863001618</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 주요 정보는 다음과 같습니다:
+1. **모집단위**: 아동학과 (2024년부터 변경됨)
+2. **수능 성적 산출 방법**: 
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균
+3. **최근 입시 경향**:
+   - 2024년도 모집단위는 아동학과로 변경되었으므로, 이전 정보를 참고하기 어렵습니다.
+   - 그러나 보육가정상담학과와 관련된 데이터를 찾아보면, 일반적으로 수능 성적은 중요한 요소 중 하나입니다.
+**성적 분석**:
+- 5.33 등급의 경우, 표준점수로 변환하면 대략 120점 정도 됩니다 (이 값은 실제 변환표에 따라 다를 수 있습니다).
+- 보육가정상담학과의 입시에서는 국어 + 수학 + 탐구(2개) 표준 변환 점수 합을 평균으로 산출합니다.
+**예상 평균 성적**:
+- 예를 들어, 5.33 등급이 120점이라고 가정하면, 이 점수가 다른 수험생들의 점수와 비교되어야 합니다.
+- 만약 해당 과목의 평균 점수가 120점 이상이라면, 합격 가능성은 낮을 수 있습니다. 반대로, 평균이 120점 미만이라면, 합격 가능성은 높아질 수 있습니다.
+**추천 조치**:
+- 실제 변환표를 확인하여 정확한 점수를 산출합니다.
+- 동의대학교 입시 홈페이지나 채널을 통해 최신 정보를 확인합니다.
+- 다른 평가 요소 (면접, 학생부 등)도 고려해야 합니다.
+따라서, 5.33 등급만으로는 확실한 결론을 내리기 어렵습니다. 최종 결정을 위해서는 동의대학교 입시 홈페이지나 채널을 통해 가장 최신 정보를 확인하시고, 필요하다면 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.05923805852143713</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+당신이 예비 12번을 받았다는 점에서, 충원 합격자 발표 시점에 예비 순위가 12위 안에 들었다면 합격 가능성은 있습니다. 그러나 이는 확정적인 것이 아니며, 최종적으로는 해당 날짜에 홈페이지를 통해 개별 조회해야 합니다.
+추가적으로, 동의대학교에서는 다음과 같은 절차를 따릅니다:
+1. **발표**: 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+3. **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다.
+따라서, 2024. 02. 15.(목) 09:00 이후에 동의대학교 입학안내 홈페이지를 통해 개별 조회를 해보시고, 예비 순위가 12위 안에 들었다면 합격 가능성이 있습니다.
+만약 추가 정보나 자세한 안내가 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2780118540634144</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급을 가지고 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높고 입학사정관들이 다양한 요소를 고려하므로 확실한 결과는 보장할 수 없습니다.
+유아교육학과의 특성상 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 유아교육학과는 인기 학과로, 지원자가 많습니다. 따라서 4.75의 영어 등급으로 충분히 경쟁력을 갖추기는 어렵습니다.
+2. **전형 요소**: 입학사정관들이 서류평가와 면접을 통해 다양한 요소를 평가합니다. 학업역량, 전공적합성, 공동체역량 등을 종합적으로 판단하므로, 좋은 서류와 면접 준비가 중요합니다.
+3. **서류 평가**: 4.75의 영어 등급은 서류평가에서 높은 점수를 받을 수 있지만, 학업태도나 전공적합성 등을 보여주는 내용이 더 중요할 수 있습니다.
+4. **면접 준비**: 면접에서는 지원동기와 학업계획, 그리고 유아교육에 대한 이해와 관심을 잘 표현해야 합니다.
+5. **추천서 및 추천인**: 추천서나 추천인이 있다면 이 또한 큰 도움이 될 수 있습니다.
+결론적으로 4.75의 영어 등급으로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높고 입학사정관들이 다양한 요소를 종합적으로 평가하므로 확실한 결과는 보장할 수 없습니다. 최선을 다해 서류와 면접 준비를 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1613397288220778</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 보육가정상담학과는 일반학생전형으로 20명을 모집합니다.
+   - 지원자는 45명입니다 (경쟁률은 약 2.27:1).
+2. **등급 평균**:
+   - 2023년도의 등급 평균은 대략 4.16 정도였습니다.
+3. **최종 등록자들의 등급 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 380.57
+   - 영어 등급의 평균: 4.16
+이러한 정보를 바탕으로, 동의대학교 보육가정상담학과의 경쟁률은 약 2.27:1이며, 평균 등급은 대략 4.16입니다. 따라서, 당신의 등급이 4.16이라는 점에서, 합격 가능성은 상당히 높습니다.
+하지만, 정확한 합격 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+- **개별 지원자의 경쟁력**: 다른 지원자들의 등급과 면접 성적 등을 고려해야 합니다.
+- **면접 성적**: 서류평가 외에도 면접 평가도 중요한 역할을 합니다. 면접에서 좋은 성적이 나와야 합격 확률이 높아집니다.
+- **전형 요소의 균형**: 공동체역량, 학업역량, 전공적합성 등 다양한 평가 영역에서 좋은 점수를 받는 것이 중요합니다.
+따라서, 현재 정보만으로 보면 합격 가능성은 높지만, 최종 결정은 면접 성적과 전체적인 평가 결과에 따라 달라질 수 있습니다. 따라서, 면접 준비와 서류 제출을 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.04907219285034038</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 계열: 공학
+   - 모집단위: 소프트웨어융합학과
+   - 모집인원: 7명
+2. **경쟁률 및 합격 평균 등급**:
+   - 2024학년도에 해당 모집단위의 경쟁률은 약 1.52입니다.
+   - 지원 인원이 95명이고, 충원 합격자는 60명으로 보아, 경쟁률은 상대적으로 낮습니다.
+3. **수능 평균 등급**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 413.21
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 420.32
+4. **영어 등급**:
+   - 영어 등급의 평균은 4.17입니다.
+5. **전형요소 반영비율**:
+   - 수능이 100% 반영됩니다.
+   - 따라서, 수능 점수가 핵심적인 역할을 합니다.
+6. **합격 가능성**:
+   - 경쟁률이 낮고 모집인원도 적으므로, 평균 이상의 성적을 받는다면 충분히 합격 가능성이 있습니다.
+   - 예상적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 410점 이상, 수능 4개 영역 (가산점 포함) 표준 변환 점수가 420점 이상을 받는다면 좋은 성적으로 평가받을 수 있을 것입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 410점 이상, 수능 4개 영역 (가산점 포함) 표준 변환 점수가 420점 이상을 받는 것이 목표로 좋습니다. 이외에도 지원자의 전반적인 성적과 경쟁력을 고려해야 하므로, 개인의 실력에 따라 적절한 대비를 해야 합니다.
+추가 정보나 자세한 문의사항이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>5.188010026986784e-14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 정원외 모집에서 서류평가와 면접평가가 함께 이루어지며 각각의 비중은 다음과 같습니다:
+1. **서류평가**:
+   - 평가영역: 공동체역량, 학업역량, 전공적합성
+   - 배점: 각 영역별로 60% (서류), 40% (면접)
+2. **면접평가**:
+   - 평가영역: 학업역량, 전공적합성
+따라서 서류평가에서 공동체역량, 학업역량, 전공적합성을 평가하는 것이 주요합니다.
+### 서류 준비사항
+- **고교 학생부 온라인 제공 동의**: 필요하지 않습니다.
+- **검정고시출신자 / 외국고교 졸업(예정)자**:
+  - 검정고시 합격증서 사본 또는 합격증명서
+  - 검정고시 성적증명서
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+- **외국고교 졸업(예정)자**:
+  - 공증받은 외국고교 졸업(예정)증명서
+  - 공증받은 외국고교 성적증명서
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+  - 아포스티유 확인서 또는 영사확인
+### 세특 내용 준비
+- **공동체역량**:
+  - 협업능력: 공동체 목표를 위한 협력적 태도, 나눔과 배려
+  - 학교폭력 여부: 학교생활기록부의 학교폭력 기재 사실 확인
+- **학업역량**:
+  - 학업에 대한 흥미 및 주도적 노력
+  - 수업시간 적극적 참여
+  - 학업 성취정도, 학년별 성적 추이
+- **전공적합성**:
+  - 지원 전공(계열) 관련 활동과 경험
+  - 지원 전공(계열) 관련 학업 의지
+  - 학교생활의 적극적 참여
+### 면접 준비사항
+- **면접 질문 공통문항**:
+  - 지원 동기 및 학업 계획
+  - 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력
+  - 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내 활동
+### 결론
+- **서류 준비**: 세특 내용을 중심으로 작성해야 합니다. 특히 공동체역량, 학업역량, 전공적합성에 대한 구체적인 사례와 경험을 잘 기재해야 합니다.
+- **면접 준비**: 지원 동기, 학업 계획, 학업 역량 및 전공 적합성을 강조하는 답변을 준비해야 합니다.
+따라서 세특 내용을 많이 보시는 편이며, 이를 중심으로 서류와 면접 모두 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0005285219390773077</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 경쟁률이 약 4.87인 상황에서 충분히 가능할 것으로 보입니다. 그러나 다음과 같은 요소들을 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균이 330.11이고, 지원자들의 점수가 상대적으로 높은 편입니다. 따라서 이 부분에서 좋은 성적을 보여줘야 합니다.
+2. **영어 등급**: 평균이 3.30으로 중간 수준입니다. 영어 점수도 고려해야 합니다.
+3. **전체 경쟁률**: 경쟁률이 높아서, 단순히 성적이 높다고 해서 무조건 합격할 수는 없습니다. 지원자들의 평균 점수가 높기 때문에, 전체적으로 좋은 성적을 보여줘야 합니다.
+4. **추천 및 특별한 경력**: 추천서나 특별한 경력 등이 있다면 이 부분도 고려해볼 만합니다.
+따라서, 정시 성적이 4.08이라면 충분히 가능성이 있지만, 확실하게 합격할 수 있는 것은 아닙니다. 최선을 다하여 지원하고, 다른 요소들도 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.09641613313289439</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 정시 모집에서 다음과 같은 정보가 있습니다:
+- 단과대학: ICT공과대학
+- 모집단위: 소프트웨어융합학과
+- 모집 인원: 7명
+- 지원 인원: 42명 (최초합격자)
+- 경쟁률: 약 6.00
+정시 모집의 평균 등급을 확인하기 위해서는 최종등록자의 평균 등급과 비교해야 합니다. 하지만 주어진 정보만으로는 정확한 평균 등급을 알 수 없습니다.
+주요 참고사항:
+1. **경쟁률**: 6:1은 상대적으로 높은 경쟁률입니다.
+2. **최초합격자 평균 등급**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87
+   - 영어 등급의 평균은 3.30
+   - 수능 4개 영역 등급의 평균은 4.12
+이 정보만으로는 정확한 5등급을 판단하기 어렵습니다. 하지만 일반적으로 5등급은 상대적으로 낮은 점수를 의미하므로, 이 학과에 지원하는 경우 5등급보다 높은 등급을 목표로 설정하는 것이 좋을 수 있습니다.
+더 정확한 평균 등급을 파악하기 위해서는 해당 대학의 입시 홈페이지나 공지사항을 확인하거나, 입시 컨설팅 서비스를 이용하는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1967599671871432</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 경우, 경쟁률과 모집인원 등을 고려해보면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 신소재공학과는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, 2024년도에 신소재공학과의 모집인원이 56명이고 지원자가 81명이었다면, 경쟁률은 약 1.45였습니다.
+2. **성적 평균**: 제공된 데이터에서 2024년도 신소재공학과의 성적 평균을 보면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 271.64였습니다.
+3. **성적 분포**: 표준 편차는 19.52로, 이는 성적이 상대적으로 넓게 분포하고 있다는 것을 의미합니다. 따라서 4.28이라는 점수는 평균보다 약간 높은 수치입니다.
+4. **가산점**: 신소재공학과의 경우, 수능 성적 반영방법에서 수학(미적분 or 기하) 응시자는 수학 취득 표준점수의 10%를 가산점으로 부여받습니다. 이 점수도 고려해야 합니다.
+5. **전형 요소**: 동의대학교는 다양한 전형 요소를 고려합니다. 예를 들어, 학생부 종합 평가에서는 공동체역량, 학업역량, 전공적합성 등을 평가하기 때문에, 성적이 높더라도 다른 평가 항목에서 우수한 점수를 받는다면 유리할 수 있습니다.
+따라서 4.28이라는 성적만으로는 확실하게 합격을 보장받기는 어렵지만, 경쟁률과 모집인원 등을 고려하면 가능성이 있습니다. 특히 다른 평가 항목에서 우수한 점수를 받거나, 특별한 경험이나 활동이 있다면 더 유리할 수 있습니다.
+추천되는 조치는 다음과 같습니다:
+- **자기소개서와 추천서 작성**: 이 부분에서는 개인의 강점과 전공적합성을 잘 보여줄 수 있어야 합니다.
+- **면접 준비**: 면접에서도 성적이 높은 이유, 그리고 해당 학과에 대한 열정 등을 잘 표현해야 합니다.
+결론적으로, 4.28이라는 성적만으로는 확실한 합격을 보장받기는 어렵지만, 다른 평가 항목에서 우수한 점수를 받거나 특별한 경험을 가지고 있다면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.06559218838221548</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+특히 나군(실기/실적 포함)의 경우, 수능 성적이 주된 평가 기준이 되며, 자기소개서는 제출하지 않아도 됩니다.
+나군 수능 일반학생전형 요약:
+- 전형요소 반영비율: 수능 100%, 실기 0% (디자인조형학과, 체육학과 제외)
+- 자기소개서는 요구되지 않습니다
+하지만 학생부종합 전형의 경우, 서류평가와 면접 평가를 포함하므로 자기소개서가 필요할 수 있습니다. 이 경우에는 해당 전형의 세부 안내를 확인해보시기 바랍니다.
+따라서 일반적으로 수능 일반학생전형으로 지원하실 때는 자기소개서 작성은 필수사항이 아닙니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>2.584665401305516e-05</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 추가모집에 지원하는 것은 가능하지만, 확실한 합격 여부는 모집단위와 모집인원, 경쟁률 등을 고려해야 합니다.
+1. **모집단위와 모집인원**: 각 모집단위별로 모집 인원이 다르므로, 모집인원이 많을수록 경쟁률은 낮아지게 됩니다.
+2. **경쟁률**: 4.5 등급으로 지원하면 경쟁률이 높은 모집단위에서는 어려울 수 있습니다. 그러나 경쟁률이 낮은 모집단위에서는 가능성이 있습니다.
+3. **추가모집의 특성**: 추가모집은 일반 모집보다는 더 유연하게 운영되므로, 평균적인 경쟁률보다는 조금 더 낮아질 가능성이 있습니다.
+따라서, 다음과 같은 절차를 따르시면 도움이 될 수 있습니다:
+1. **추가모집 정보 확인**: 동의대학교 웹사이트에서 추가모집에 대한 공지사항을 확인하세요.
+2. **경쟁률 분석**: 각 모집단위별로 현재 경쟁률을 파악하고, 4.5 등급으로 지원 가능한 모집단위를 선정하세요.
+3. **지원 전략 수립**: 선택한 모집단위에 대해 지원 가능성을 높이기 위한 전략을 세우세요.
+추가모집은 일반 모집보다는 더 유연하게 운영되므로, 4.5 등급으로도 일부 모집단위에서는 합격할 수 있는 기회가 있을 수 있습니다. 그러나 확실한 결과를 얻으려면 정확한 정보와 전략이 필요합니다.
+추가로 궁금한 점이 있으면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)에서 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3094348936293914</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 모집요강을 살펴보겠습니다. 
+- **모집 인원**: 56명
+- **지원 인원**: 81명
+- **경쟁률**: 1.45
+수능 성적 관련 데이터는 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 286.97
+- **영어 등급의 평균**: 4.33
+이러한 데이터를 바탕으로, 신소재공학과와 분자나노공학과는 경쟁률이 약 1.45로 높은 편이며, 수능 성적 평균이 286.97이라는 점을 고려하면, 대략적으로 **수능 최저 등급 B+** 이상의 성적이 필요할 것으로 예상됩니다.
+하지만 정확한 합격 가능 등급은 개인의 성적과 경쟁률, 그리고 다른 평가 요소(면접, 서류 등)에 따라 달라질 수 있으므로, 실제 지원 시에는 동의대학교 입학처 웹사이트나 전문 컨설팅을 통해 최신 정보와 자세한 안내를 확인하는 것이 좋습니다. 
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.08591672438589176</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과와 고분자나노공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **모집 인원**: 56명
+2. **지원 인원**: 81명
+3. **경쟁률**: 1.45
+4. **충원 합격 (후보순위)**: 25명
+5. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 271.64
+6. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 19.52
+7. **영어 등급 평균**: 5.06
+8. **영어 등급 표준 편차**: 1.22
+9. **수능 4개 영역 등급 평균**: 5.78
+10. **수능 4개 영역 등급 표준 편차**: 0.49
+11. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 378.15
+12. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 21.81
+이러한 데이터를 바탕으로, 표준점수가 447점인 경우는 상당히 높은 수준입니다. 작년에 비해 동일한 표준점수가 충원 합격을 하기 위해서는 지원자가 많아지거나 경쟁률이 더 높아져야 합니다.
+**가능성 분석:**
+1. **경쟁률 상승**: 작년보다 지원자가 더 많이 지원하여 경쟁률이 올라갔다면, 같은 표준점수라도 충원 합격 가능성이 낮아질 수 있습니다.
+2. **표준점수 변동**: 작년과 비교해 표준점수가 약간 상승했을 경우, 동일한 점수라도 충원 합격 가능성은 낮아질 수 있습니다.
+**결론:**
+현재 정보로는 447점이 작년 신소재공학과의 평균 표준점수보다 약간 높으므로, 작년에 비해 경쟁률이 상승하거나 지원자가 더 많아진다면 충원 합격 가능성은 낮아질 수 있습니다. 하지만 정확한 확률을 예측하기 위해서는 작년의 지원자들의 점수 분포와 경쟁률 등을 고려해야 합니다.
+만약에 더 자세한 정보나 작년 데이터가 필요하다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.01076428768696923</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 동의대학교에서 신소재공학부의 일반학생전형에 충분한 점수일지는 불확실합니다. 동의대학교의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+신소재공학부는 일반적으로 높은 수학 점수가 요구되므로, 4.1~4.2등급의 영어 성적만으로는 충분하지 않을 가능성이 큽니다.
+다음은 몇 가지 고려사항입니다:
+1. **수학 성적**: 신소재공학부에서는 수학이 매우 중요합니다. 4.3 등급의 영어와 함께 수학 점수가 높아야 합니다.
+2. **탐구 과목**: 탐구 과목에서도 좋은 성적이 필요할 수 있습니다. 특히 물리나 화학과 같은 관련 과목이 중요할 수 있습니다.
+3. **전반적인 성적 평균**: 동의대학교는 전반적인 성적 평균을 고려하기 때문에, 국어와 탐구 등 다른 영역에서도 좋은 성적이 필요합니다.
+현재의 성적만으로는 확실한 합격 보장은 어렵습니다. 하지만 다음과 같은 방법들을 시도해볼 수 있습니다:
+1. **추가 공부**: 수학과 관련된 과목을 집중적으로 공부하여 점수를 높이는 것이 좋습니다.
+2. **면접 준비**: 일부 전형에서는 면접이 포함되므로, 면접 준비도 필요합니다.
+3. **추천서 및 자기소개서 작성**: 좋은 추천서와 자기소개서는 합격에 도움이 될 수 있습니다.
+결론적으로, 현재의 성적만으로는 신소재공학부 일반학생전형에 충분한 점수가 아닌 것 같습니다. 추가적인 준비가 필요할 것으로 보입니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입시 홈페이지나 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2605950288082938</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 인공지능학과 수능(일반학생전형)에 대한 최종등록자와 최초합격자의 성적을 요약하면 다음과 같습니다:
+- **최종등록자**:
+  - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 293.11
+  - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차: 14.35
+  - 영어 등급의 평균: 4.53
+  - 영어 등급의 표준 편차: 0.80
+  - 수능 4개 영역 등급의 평균: 5.25
+  - 수능 4개 영역 등급의 표준 편차: 0.35
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 15.55
+- **최초합격자**:
+  - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 286.44
+  - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차: 17.51
+  - 영어 등급의 평균: 4.18
+  - 영어 등급의 표준 편차: 0.98
+  - 수능 4개 영역 등급의 평균: 5.27
+  - 수능 4개 영역 등급의 표준 편차: 0.43
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 399.96
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 19.23
+이 성적을 참고하여 자신의 성적이 어느 정도인지 비교해보시고, 필요하다면 추가 준비를 하실 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2472487665718057</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교의 정시 모집단위에서 추천받기 위해서는 해당 단과대학 및 모집단위의 경쟁률과 지원자의 평균 점수를 고려해야 합니다.
+현재 제공된 데이터 중에서 5.27이라는 성적이 가장 가까운 것은 상경대학의 경영학과입니다:
+- 모집 인원: 15명
+- 지원 인원: 65명
+- 경쟁률: 4.33
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 300.68
+이 데이터를 바탕으로, 5.27이라는 성적은 상경대학 경영학과의 지원자 중에서 상위권에 속할 가능성이 있습니다. 그러나 정확한 추천 여부는 다음과 같은 요인들을 고려해야 합니다:
+1. **모집단위별 경쟁률**: 경영학과의 경쟁률이 4.33으로 비교적 높습니다.
+2. **평균 점수**: 평균 점수가 300.68로, 5.27은 상당히 높은 성적이므로 지원 가능성이 있습니다.
+3. **전형별 특성**: 동의대학교는 다양한 전형을 통해 학생들을 선발하므로, 다른 전형(예: 수능, 학생부종합 등)에서도 고려해볼 만합니다.
+따라서 5.27이라는 성적만으로는 확실한 추천은 어렵지만, 상경대학 경영학과를 포함하여 여러 단과대학 및 모집단위에서 지원을 고려해보시는 것이 좋습니다. 추가적인 정보나 전형별 특성을 고려하여 결정하시기 바랍니다.
+추가적으로, 동의대학교의 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1146125717619836</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주요 정보를 바탕으로 분석해보겠습니다.
+1. **경쟁률 및 모집인원**: 
+   - 2024학년도 모집 인원은 30명이며, 지원 인원이 146명으로 경쟁률이 높습니다 (4.87).
+2. **성적 평균**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+   - 영어 등급의 평균은 3.77이며, 수능 4개 영역 등급의 평균은 4.49입니다.
+3. **성적 분포**:
+   - 표준 편차가 높아 (가산점 포함) 표준 변환 점수 합의 표준 편차는 8.01이며, 영어 등급의 표준 편차는 0.67입니다.
+4. **성적 평가**:
+   - 성적이 높은 경쟁률을 고려할 때, 4.2의 성적은 상대적으로 낮습니다.
+   - 그러나 수능 점수 외에도 학업역량과 전공적합성을 평가하기 때문에, 다른 요소들이 긍정적인 영향을 미칠 수 있습니다.
+5. **전형 요소**:
+   - 서류평가와 면접평가의 비중이 높아 (60% + 40%)로, 학업역량과 전공적합성에 대한 평가가 중요합니다.
+   - 이 부분에서 좋은 성적이나 활동 경험이 있으면 유리할 수 있습니다.
+**결론**: 
+- **성적이 낮은 경우에도 가능성이 있지만 매우 낮습니다.**
+- **학업역량과 전공적합성, 그리고 면접 성적이 높아야 합니다.**
+- **추천서나 활동 경험이 풍부한 경우 유리할 수 있습니다.**
+따라서, 4.2의 성적만으로는 낮은 확률로 합격할 가능성이 있지만, 다른 평가 요소들이 긍정적인 영향을 미치면 기회는 열려 있을 수 있습니다. 자세한 정보와 지원 전략은 입학처나 관련 홈페이지를 참고하시거나 직접 문의하시는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](입학처 웹사이트)</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.01648891231800029</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 영어 등급 점수가 5등급에 해당하는 점수입니다 (영어 등급의 평균은 3.92이고, 표준 편차가 0.12로 매우 낮습니다). 하지만 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집에서는 성적 산출 방법이 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+3.92라는 점수만으로는 충분한 점수가 아닙니다. 특히, 화학환경공학부에서는 수학과 탐구 과목의 성적이 중요합니다.
+다음은 화학환경공학부에 지원하기 위한 일반적인 성적 기준입니다:
+1. **국어 표준점수**: 높은 점수가 필요합니다.
+2. **수학 표준점수**: 특히 수학(미적분 또는 기하)을 응시한 경우, 90 이상의 점수가 바람직합니다 (가산점 포함).
+3. **영어 등급점수**: 5등급 이상이 필요하며, 3.92는 이에 해당합니다.
+4. **탐구 표준점수**: 과학 관련 탐구 영역에서 높은 점수가 바람직합니다.
+따라서, 국어와 탐구 영역의 성적이 좋다면 화학환경공학부 일반학생전형에 지원 가능할 수 있습니다. 하지만 정확한 가능성 판단을 위해서는 해당 학과의 최종 등록자들의 성적 분포를 확인하고, 자신의 성적과 비교해야 합니다.
+추가적으로, 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 가장 최신 정보와 정확한 지원 가이드를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.07894785272334499</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 화학공학과와 환경공학과, 응용화학과는 수능(일반학생전형) 모집단위로 운영됩니다. 성적 정보를 바탕으로 판단해보겠습니다.
+- **수능 전형성적 산출방법**: 
+  - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균
+  - 가산점은 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1
+- **성적 정보**: 
+  - 성적 산출 예시에서 국어, 수학, 영어 등급, 과탐 점수를 확인해야 합니다.
+  - 주어진 정보는 수능 전형성적 산출방법에 따라 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합을 계산해야 합니다.
+주어진 정보만으로는 정확한 성적 평균을 알 수 없습니다. 하지만 주요 요소인 **수능 4개 영역 등급의 평균**이 4.25라는 점에서, 이는 상당히 높은 점수입니다.
+- **경쟁률 및 모집 인원**: 
+  - 화학공학과: 경쟁률 1.21, 모집인원 101명
+  - 환경공학과: 경쟁률 1.21, 모집인원 101명
+  - 응용화학과: 경쟁률 2.40, 모집인원 99명
+이러한 경쟁률을 고려하면, 성적 4.25는 좋은 점수로 보입니다.
+**추천 사항**:
+1. **성적 확인**: 정확한 수능 성적을 확인하고, 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합을 계산하세요.
+2. **경쟁률 및 모집인원**: 각 과의 경쟁률과 모집 인원을 고려하여 지원 가능성을 판단하세요.
+3. **추천서 및 자기소개서**: 좋은 성적 외에도 추천서와 자기소개서 등 서류 준비도 중요합니다.
+**결론**: 주어진 정보만으로는 확정할 수 없지만, 4.25의 평균 점수는 화학공학과, 환경공학과, 응용화학과에 지원하는 데 충분한 성적입니다. 정확한 성적을 확인하고, 추가 정보를 바탕으로 최종 결정하시기 바랍니다.
+더 궁금하신 사항이 있으시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.06399017727565642</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 표준점수는 상대적으로 좋은 점수입니다. 하지만 영화학과의 경쟁률이 2.20으로 낮은 편이라, 성적이 좋은 경우 충분히 합격 가능성은 있습니다.
+다음은 몇 가지 참고사항:
+1. **경쟁률**: 2.20이라는 경쟁률은 상대적으로 낮아서, 평균적인 점수만으로도 충분히 합격 가능성이 높습니다.
+2. **평균 성적**: 영화학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 404.43입니다. 이보다 낮지 않으면 큰 문제는 없을 것입니다.
+3. **영어 등급**: 영어 등급의 평균이 3.66이고, 당신의 성적이 4.2라면 이 부분에서도 우위를 점할 수 있습니다.
+4. **전공적합성**: 영화학과에서는 창의성과 예술적 감각이 중요합니다. 학업역량 외에도 전공적합성을 고려받을 수 있으니, 이 부분에서 좋은 평가를 받는 것이 좋습니다.
+5. **서류 및 면접**: 서류평가와 면접에서도 좋은 성적을 받으면 더 큰 우위를 점할 수 있습니다.
+따라서, 4.2의 표준점수로 영화학과를 지원한다면 합격 가능성은 높습니다. 하지만 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으니, 모든 준비를 철저히 해두는 것이 좋겠습니다.
+만약 추가 정보나 자세한 질문이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1756138809159091</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 참여자가 동일하게 진행되며, 면접위원 2~3명이 수험생을 대상으로 개별적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.6537062871265522</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3421741613811314</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2704919355157106</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1879460580460842</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.306333048448421</v>
+      <c r="D305" t="n">
+        <v>0.2668707183143087</v>
       </c>
     </row>
   </sheetData>
